--- a/public/sample/students.xlsx
+++ b/public/sample/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafi1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafi1\Desktop\ujikom-new\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC3F208-17CB-4BDE-8553-943C8958A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7866C3B-A1AA-42FA-A6FB-38C1F2771452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2480" windowWidth="21600" windowHeight="12620" xr2:uid="{3F6234C4-DA2B-4EDC-BA89-B2F7FC7622BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -50,7 +50,10 @@
     <t>Rafi</t>
   </si>
   <si>
-    <t>Agus</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Budi</t>
   </si>
 </sst>
 </file>
@@ -402,36 +405,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD173107-92E1-4916-B080-22E004909E59}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>62811123004</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6285156867630</v>
       </c>
     </row>
   </sheetData>
